--- a/data/min_var_monthly_returns.xlsx
+++ b/data/min_var_monthly_returns.xlsx
@@ -505,40 +505,40 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.01028309319423237</v>
+        <v>-0.0149508748075321</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.02662675768305711</v>
+        <v>-0.03628029688233059</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.040420133348954</v>
+        <v>-0.04239598028305547</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04783433557363992</v>
+        <v>0.03116016403365429</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03293840952126059</v>
+        <v>-0.03538191898732457</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04888365786733329</v>
+        <v>-0.05265699975571048</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02917716141497317</v>
+        <v>0.03792439518260604</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01278180943141716</v>
+        <v>0.0234236326452022</v>
       </c>
       <c r="J2" t="n">
-        <v>-5.340243937723699e-06</v>
+        <v>-0.007695788326142594</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04931067660087418</v>
+        <v>0.04982822241327534</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02715771963763469</v>
+        <v>0.01729097288257431</v>
       </c>
       <c r="M2" t="n">
-        <v>0.03768086082400801</v>
+        <v>0.02517033689372683</v>
       </c>
     </row>
     <row r="3">
@@ -546,40 +546,40 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03338984141514501</v>
+        <v>0.03135116531428772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02389733626882062</v>
+        <v>0.01998621214917407</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03279292079912821</v>
+        <v>0.02488781187352673</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02977336739176861</v>
+        <v>0.03094173008422363</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04006745022083913</v>
+        <v>0.04855581204260817</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002491332540327296</v>
+        <v>-0.004212003154407951</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01178466905738018</v>
+        <v>0.0129282793381067</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003268639122143036</v>
+        <v>-0.002348484390692684</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04495269509448496</v>
+        <v>0.04809454583110129</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04198337172817501</v>
+        <v>0.03827728483392323</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03747751019560219</v>
+        <v>0.04097087941484667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.051907666014958</v>
+        <v>0.05473966955833953</v>
       </c>
     </row>
     <row r="4">
@@ -587,40 +587,40 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01390650469972821</v>
+        <v>0.01261908960982305</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.006469460755074152</v>
+        <v>-0.003920769167452764</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01833552281746198</v>
+        <v>0.02640165196901334</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.01671125526120099</v>
+        <v>-0.00924820471559773</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02282463099907162</v>
+        <v>0.01631924459621548</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03836045989549852</v>
+        <v>0.03439170132876535</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04981663370451095</v>
+        <v>-0.04610655824964827</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.009217050587226217</v>
+        <v>0.00736661617078771</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02438050132929259</v>
+        <v>0.03333421080136878</v>
       </c>
       <c r="K4" t="n">
-        <v>0.05335798465374597</v>
+        <v>0.06038566396822032</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05954449063137734</v>
+        <v>0.06102520747646567</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.01020982122687086</v>
+        <v>-0.01213256990701528</v>
       </c>
     </row>
     <row r="5">
@@ -628,40 +628,40 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02642005791765545</v>
+        <v>0.0196671806840758</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01565182750098892</v>
+        <v>0.01455108510163927</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00371735303299181</v>
+        <v>-0.0007884005006718597</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06170521120213324</v>
+        <v>0.05348711188877631</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05019170109373317</v>
+        <v>0.04716538453167241</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03239030739412341</v>
+        <v>0.0299849477509786</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04980861440930884</v>
+        <v>0.06153557123305342</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04330446750286665</v>
+        <v>-0.04590135073455071</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04716444197699854</v>
+        <v>0.0770605890072189</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02817173501298165</v>
+        <v>-0.02520916137806073</v>
       </c>
       <c r="L5" t="n">
-        <v>0.043145374412906</v>
+        <v>0.06530105440431155</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00168894696132238</v>
+        <v>0.01577505474386709</v>
       </c>
     </row>
     <row r="6">
@@ -669,40 +669,40 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.003608574416722465</v>
+        <v>0.00596051348932547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04845348625741641</v>
+        <v>0.06083867670458121</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07624822611356685</v>
+        <v>0.0742947028933858</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02119280468932705</v>
+        <v>0.02536161276066573</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02690212420289206</v>
+        <v>-0.02762800213355143</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0009270679676494087</v>
+        <v>0.01420389616980366</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.02843076032547331</v>
+        <v>-0.01958522237705806</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03789080774067166</v>
+        <v>-0.03767287692688015</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02271371775582631</v>
+        <v>0.04184809190198924</v>
       </c>
       <c r="K6" t="n">
-        <v>0.004279987373808192</v>
+        <v>0.001144417953769183</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03251984999966617</v>
+        <v>0.04202728800921318</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009113437328816865</v>
+        <v>0.01393009201494255</v>
       </c>
     </row>
     <row r="7">
@@ -710,40 +710,40 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.04173980944334421</v>
+        <v>-0.04954721919429939</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.01576275247939352</v>
+        <v>-0.03564704678893582</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0437972307463923</v>
+        <v>0.03472137231005701</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07987564745313613</v>
+        <v>0.09176281441521783</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03045245471192004</v>
+        <v>-0.00841228978512254</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01445175656792963</v>
+        <v>-0.02086506412993905</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01197159858765073</v>
+        <v>-0.01588051862132167</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.00623567170940853</v>
+        <v>0.0002097481474643281</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.05755252616258821</v>
+        <v>-0.0536607741312658</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02235270113333931</v>
+        <v>0.02515039125244822</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03344264596533353</v>
+        <v>-0.03585604279011956</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01106127598729878</v>
+        <v>0.01813204694963355</v>
       </c>
     </row>
     <row r="8">
@@ -751,40 +751,40 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003246712162937593</v>
+        <v>-0.02284929198453978</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.05336251773288248</v>
+        <v>-0.0587825432813408</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1438731558530637</v>
+        <v>0.1542529545260258</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.002764274526938171</v>
+        <v>0.003139282366214413</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03794122966364988</v>
+        <v>0.03795046553803338</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01531106866207044</v>
+        <v>-0.01243915222321879</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01453372023878241</v>
+        <v>-0.004105673595718007</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03321772469657103</v>
+        <v>0.06076263805938442</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07168404358837899</v>
+        <v>0.08075053036607338</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01180378987360831</v>
+        <v>0.0001649721095964285</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.03078993644748085</v>
+        <v>-0.02782538384061595</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05005112250491872</v>
+        <v>0.05766282726101979</v>
       </c>
     </row>
     <row r="9">
@@ -792,40 +792,40 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.04984259902414534</v>
+        <v>-0.0677610127403665</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04069096475049405</v>
+        <v>0.03862676568209911</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03317215234577775</v>
+        <v>-0.03370819322390162</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04200861952588175</v>
+        <v>0.03138276956059993</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.006045676646333487</v>
+        <v>-0.005940891709040996</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.005229126755926794</v>
+        <v>-0.001923383222315111</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.05565148316310453</v>
+        <v>-0.04986809196456155</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01436562147228637</v>
+        <v>-0.01452337285361827</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.06295266071846273</v>
+        <v>-0.0531866920071985</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01304110924271673</v>
+        <v>0.008949984653981335</v>
       </c>
       <c r="L9" t="n">
-        <v>0.03188639952737127</v>
+        <v>0.05509688114948119</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02185091045714516</v>
+        <v>0.01815171819384442</v>
       </c>
     </row>
     <row r="10">
@@ -833,40 +833,40 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.02063365791639449</v>
+        <v>-0.01167833301079035</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02211786207300803</v>
+        <v>0.0187286419143069</v>
       </c>
       <c r="D10" t="n">
-        <v>0.05103661415126592</v>
+        <v>0.07210285650579729</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.002166646052677024</v>
+        <v>-0.004420541010288659</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0004090846371959111</v>
+        <v>0.003625371824478307</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01755564749396699</v>
+        <v>-0.05003658402496258</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.03853141147661376</v>
+        <v>-0.05716786133067908</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02163381303598655</v>
+        <v>-0.01737608191933426</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.04609420112686835</v>
+        <v>-0.0818766266355242</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04054466130474466</v>
+        <v>0.08079492842426061</v>
       </c>
       <c r="L10" t="n">
-        <v>0.05175711989722021</v>
+        <v>0.06616980251873383</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.007812360613648539</v>
+        <v>-0.02078850122742093</v>
       </c>
     </row>
     <row r="11">
@@ -874,40 +874,40 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.05051995289006739</v>
+        <v>-0.02681383640396617</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02388522977776741</v>
+        <v>-0.01260120979834367</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01755483273212666</v>
+        <v>0.02358845234921181</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03440064970985524</v>
+        <v>0.04469135049986184</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04906757028925068</v>
+        <v>0.04386311169501589</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02823661854261839</v>
+        <v>0.02816996533537197</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.01173189514955209</v>
+        <v>-0.008360941141834721</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03896277747956689</v>
+        <v>0.02942877701747371</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.0329973911187289</v>
+        <v>-0.02269608620320962</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02780225534755054</v>
+        <v>0.04854187282166955</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.01071243115678455</v>
+        <v>-0.00646645890271369</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04784875566138314</v>
+        <v>0.05662071508998245</v>
       </c>
     </row>
     <row r="12">
@@ -915,40 +915,40 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.001519836260167495</v>
+        <v>-0.004444633319724667</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04887364743203992</v>
+        <v>0.04511681330430317</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.001727871742203568</v>
+        <v>0.005286207601924442</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01299497270983518</v>
+        <v>-0.01336516784929853</v>
       </c>
       <c r="F12" t="n">
-        <v>0.006266048819523196</v>
+        <v>0.01401207259027748</v>
       </c>
       <c r="G12" t="n">
-        <v>0.009920363281334499</v>
+        <v>0.01770510877808307</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01896967406057848</v>
+        <v>0.009833145591749748</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01708194875322855</v>
+        <v>0.01833973344274042</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01540819433743357</v>
+        <v>0.01527361659941628</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002247869358448229</v>
+        <v>0.009065316766794895</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03745837048599543</v>
+        <v>0.03585063986725867</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02622214537031797</v>
+        <v>0.03190659816050023</v>
       </c>
     </row>
     <row r="13">
@@ -956,40 +956,40 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01657782736723057</v>
+        <v>0.005092364233472813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0651291795372213</v>
+        <v>0.08109397578270494</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.02262070263222105</v>
+        <v>-0.01827773463028592</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006068039375455303</v>
+        <v>0.002756228931857674</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008409251148998376</v>
+        <v>-0.002260123569310046</v>
       </c>
       <c r="G13" t="n">
-        <v>0.008921540577234488</v>
+        <v>0.0226061035352072</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01889059540254023</v>
+        <v>0.02683792613569302</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.007097450681549544</v>
+        <v>-0.0084474449899552</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02660038392688602</v>
+        <v>0.0394278475438703</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.05562085652122695</v>
+        <v>-0.05958994917046589</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02864710009901539</v>
+        <v>0.01962340590056355</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.001419829657193006</v>
+        <v>0.007675384316376377</v>
       </c>
     </row>
     <row r="14">
@@ -997,40 +997,40 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02545262492230882</v>
+        <v>0.03628095828828082</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.02338917585982414</v>
+        <v>-0.02516895862417934</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007864262677151679</v>
+        <v>0.007265242131212712</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01504681352819326</v>
+        <v>-0.01518550159054932</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005859842417742067</v>
+        <v>0.005095525018783631</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02086437017568388</v>
+        <v>0.02748998128367863</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02289299462354144</v>
+        <v>0.02290465578431622</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02353691133326441</v>
+        <v>0.02055846911627812</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03188334044201513</v>
+        <v>0.03582900427921643</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06389392704446317</v>
+        <v>0.06386570243071632</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01667943982014974</v>
+        <v>0.0168693875487882</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0113938071798132</v>
+        <v>0.008924800344113137</v>
       </c>
     </row>
     <row r="15">
@@ -1038,40 +1038,40 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02568729973132489</v>
+        <v>0.03375585642441248</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004874500858743414</v>
+        <v>0.01498218024505604</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01851996347616658</v>
+        <v>0.01524092935201526</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03008623884407924</v>
+        <v>0.04471132607932771</v>
       </c>
       <c r="F15" t="n">
-        <v>0.008139828515719705</v>
+        <v>0.01069474113587798</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.05219660417341032</v>
+        <v>-0.04468975389887941</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01317348415394692</v>
+        <v>-0.003531964508814323</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.004446114628477549</v>
+        <v>0.01043835069575105</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0145524921906115</v>
+        <v>0.02676136021037445</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01785775704115711</v>
+        <v>0.03748456197900141</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03201378000693311</v>
+        <v>0.00381183875206359</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.008961498241738752</v>
+        <v>-0.009764521370824841</v>
       </c>
     </row>
     <row r="16">
@@ -1079,40 +1079,40 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.01325001512786972</v>
+        <v>-0.02755005773065533</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.04145587829635156</v>
+        <v>-0.02927801499724825</v>
       </c>
       <c r="D16" t="n">
-        <v>0.03578777544557354</v>
+        <v>0.04560955610492434</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.005372787676471313</v>
+        <v>0.02314643439324571</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01409260200499374</v>
+        <v>-0.0033928626340336</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.03434139480323339</v>
+        <v>-0.04543543150645413</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0004924956631902067</v>
+        <v>0.007646693415908512</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01271015428935085</v>
+        <v>-0.006591433783971867</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.06285308099280384</v>
+        <v>-0.06641792322063889</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1089731453587762</v>
+        <v>-0.1114658553794318</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.007387876100848345</v>
+        <v>-0.01350032820528757</v>
       </c>
       <c r="M16" t="n">
-        <v>0.1181298726605051</v>
+        <v>0.03887276285138741</v>
       </c>
     </row>
     <row r="17">
@@ -1120,40 +1120,40 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1392883800231675</v>
+        <v>-0.1205101964987484</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.04879923021895161</v>
+        <v>-0.05822530981098784</v>
       </c>
       <c r="D17" t="n">
-        <v>0.141879703119143</v>
+        <v>0.101311206458474</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.002607279381760863</v>
+        <v>0.009528882626762103</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01045673269522696</v>
+        <v>0.0179848142277963</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02609650244318207</v>
+        <v>-0.00875368965373613</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02562387990002368</v>
+        <v>0.02745620835089579</v>
       </c>
       <c r="I17" t="n">
-        <v>0.008191747266980354</v>
+        <v>0.01209720585756147</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.01318855097343719</v>
+        <v>-0.0180877259578105</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.001830096417769211</v>
+        <v>-0.01152270657512444</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08147656738283682</v>
+        <v>0.08886197718236644</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0166606664405764</v>
+        <v>-0.008837219524221784</v>
       </c>
     </row>
     <row r="18">
@@ -1161,40 +1161,40 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.02808616114302553</v>
+        <v>-0.01818507526096924</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00284731191600518</v>
+        <v>2.629850017066282e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04296000388801113</v>
+        <v>0.04615442789049395</v>
       </c>
       <c r="E18" t="n">
-        <v>9.510058934969479e-05</v>
+        <v>0.001503670105735377</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.05248396060843252</v>
+        <v>-0.0462423919929239</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02780577160357245</v>
+        <v>-0.02910978975011957</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05895989728020767</v>
+        <v>0.05998970986854912</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02663905900763364</v>
+        <v>-0.01246974406308976</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04678245218295185</v>
+        <v>0.06696625855164395</v>
       </c>
       <c r="K18" t="n">
-        <v>0.003036607329317986</v>
+        <v>0.0005410988202079192</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01316344456791929</v>
+        <v>-0.01604431864881051</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01110447885298615</v>
+        <v>0.02425609260921169</v>
       </c>
     </row>
     <row r="19">
@@ -1202,40 +1202,40 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01796629730901356</v>
+        <v>0.02638378726289536</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.03921688894099495</v>
+        <v>-0.0303444434708865</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01654627194245983</v>
+        <v>0.009704335563911703</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04080305586589739</v>
+        <v>0.04343294022319522</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02308517519850373</v>
+        <v>0.0257259600229367</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01460551857603309</v>
+        <v>-0.02947376560654025</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.01273692929893744</v>
+        <v>-0.004039528574580675</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01273050159685485</v>
+        <v>0.010721602410241</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01456061300978395</v>
+        <v>-0.02413601172727631</v>
       </c>
       <c r="K19" t="n">
-        <v>0.07514115365943663</v>
+        <v>0.06760713811511265</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03643720982544396</v>
+        <v>0.02748447144848565</v>
       </c>
       <c r="M19" t="n">
-        <v>0.05234489299164791</v>
+        <v>0.04879307833523283</v>
       </c>
     </row>
     <row r="20">
@@ -1243,40 +1243,40 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01205443585559984</v>
+        <v>0.01683503893891825</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01325325281786671</v>
+        <v>-0.005751363519718389</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04248132312429376</v>
+        <v>0.04166340530535573</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.009092154990876011</v>
+        <v>-0.002584248546900425</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07703869309412759</v>
+        <v>0.07684635617467195</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0634980270216412</v>
+        <v>0.05082721765441045</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05146529309989667</v>
+        <v>0.04950984933798663</v>
       </c>
       <c r="I20" t="n">
-        <v>0.007444827677339783</v>
+        <v>-0.0006496206795855164</v>
       </c>
       <c r="J20" t="n">
-        <v>0.01989724398563819</v>
+        <v>0.02891139938639897</v>
       </c>
       <c r="K20" t="n">
-        <v>0.003240355638043146</v>
+        <v>0.004488709082007158</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.006366683340489177</v>
+        <v>-0.01567647704782837</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.02189064194945334</v>
+        <v>-0.02831528401802685</v>
       </c>
     </row>
     <row r="21">
@@ -1284,40 +1284,40 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01774910299951626</v>
+        <v>0.03232456205895606</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003875707397941852</v>
+        <v>0.01097867896464555</v>
       </c>
       <c r="D21" t="n">
-        <v>0.04911959145959588</v>
+        <v>0.05783312681472474</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03128746792291781</v>
+        <v>0.03264969391594663</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02472950870177337</v>
+        <v>-0.02816346404884018</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.02277662576700878</v>
+        <v>-0.01575898759237537</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04880435450092424</v>
+        <v>0.05364271520155661</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.04756722278617032</v>
+        <v>-0.04052816537214177</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01469927721810205</v>
+        <v>0.01042615593250873</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03700331153365966</v>
+        <v>0.038288306371971</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02562017173218956</v>
+        <v>0.0356972149468846</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00376331032813515</v>
+        <v>0.001477419328234753</v>
       </c>
     </row>
     <row r="22">
@@ -1325,40 +1325,40 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>0.001020106827736456</v>
+        <v>-0.004752597666036862</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05162317330075905</v>
+        <v>0.02944319449156385</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03116535476882931</v>
+        <v>0.02251120671557705</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03686817292747135</v>
+        <v>0.03805818918832493</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.009440842348020229</v>
+        <v>-0.008278560753303688</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01414293636880504</v>
+        <v>0.01154645868335047</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.03102456994359737</v>
+        <v>-0.03029334379257376</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04664101977170354</v>
+        <v>0.04485851392883</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.004037027333529286</v>
+        <v>-0.005229610458689637</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03107645667607795</v>
+        <v>0.02747817133930486</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0859085543083582</v>
+        <v>0.0881133545157613</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00831586704443521</v>
+        <v>0.002990293920282161</v>
       </c>
     </row>
     <row r="23">
@@ -1366,40 +1366,40 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>0.008841031877474759</v>
+        <v>0.01196716591470248</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0158507617129785</v>
+        <v>-0.008997069556447079</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.001523159580286149</v>
+        <v>-0.002430269949956654</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.01993400540939461</v>
+        <v>-0.02829341461318602</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.001008684867315868</v>
+        <v>0.01125422554242861</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0307701192239751</v>
+        <v>-0.02558659645796058</v>
       </c>
       <c r="H23" t="n">
-        <v>0.009845391004265958</v>
+        <v>0.01953042013477302</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.06922972841743402</v>
+        <v>-0.06613472939564524</v>
       </c>
       <c r="J23" t="n">
-        <v>0.01518131755808771</v>
+        <v>-0.01179225555275198</v>
       </c>
       <c r="K23" t="n">
-        <v>1.031512224303199e-06</v>
+        <v>-0.001447569330823684</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004524596138655301</v>
+        <v>0.006768694356142246</v>
       </c>
       <c r="M23" t="n">
-        <v>0.006269922709272624</v>
+        <v>0.01584168049810164</v>
       </c>
     </row>
     <row r="24">
@@ -1407,40 +1407,40 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>0.04131560853149119</v>
+        <v>0.0377009452617747</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.001258410132700338</v>
+        <v>0.004354172263570488</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03773693312528881</v>
+        <v>0.0463189264770818</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.01634237258854265</v>
+        <v>-0.00993594368665518</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03132022747652052</v>
+        <v>0.03933810851599295</v>
       </c>
       <c r="G24" t="n">
-        <v>0.047972033461539</v>
+        <v>0.04594541431784704</v>
       </c>
       <c r="H24" t="n">
-        <v>0.006517378624888437</v>
+        <v>0.004907739996356408</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.03165830993901275</v>
+        <v>-0.03033324333034704</v>
       </c>
       <c r="J24" t="n">
-        <v>0.005675291576241248</v>
+        <v>0.01081611523129822</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.01414829891650682</v>
+        <v>-0.01770653874421435</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.005087466787446981</v>
+        <v>-0.01621391108556969</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03717437021393932</v>
+        <v>0.03281373304664559</v>
       </c>
     </row>
     <row r="25">
@@ -1448,40 +1448,40 @@
         <v>2017</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00450685828427555</v>
+        <v>0.00579859553073514</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05018499143460264</v>
+        <v>0.04931912240134051</v>
       </c>
       <c r="D25" t="n">
-        <v>0.005733095787178399</v>
+        <v>0.008847656881740384</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02439150569063697</v>
+        <v>0.02449722148874733</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02259985366434569</v>
+        <v>0.02185903666034039</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01863423022370947</v>
+        <v>-0.01117261429493532</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01652104350757422</v>
+        <v>0.01961141721282211</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.004621895284488642</v>
+        <v>-0.001764174429215948</v>
       </c>
       <c r="J25" t="n">
-        <v>0.008194967126475383</v>
+        <v>0.01036942199209867</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03334974210633468</v>
+        <v>0.03691640094972337</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04240007384592515</v>
+        <v>0.04269533954760951</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006793108533379666</v>
+        <v>0.005539295971580982</v>
       </c>
     </row>
     <row r="26">
@@ -1489,40 +1489,40 @@
         <v>2018</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01583465531983141</v>
+        <v>0.02208533529981316</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.07402434801820923</v>
+        <v>-0.07548042121297383</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01005989050807687</v>
+        <v>0.004810743439375376</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0326278944089422</v>
+        <v>0.01251864105207501</v>
       </c>
       <c r="F26" t="n">
-        <v>0.02150238009699335</v>
+        <v>0.0170251607857288</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02056206348064937</v>
+        <v>0.02029679154036934</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03167276661092688</v>
+        <v>0.03052530123135844</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03806345485698603</v>
+        <v>0.03684239854371496</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003539821020739353</v>
+        <v>-0.001519089293297915</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0260036122417141</v>
+        <v>-0.02204363630115169</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004090680404617242</v>
+        <v>0.004370198473862441</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.06868300495966195</v>
+        <v>-0.0602749221480261</v>
       </c>
     </row>
     <row r="27">
@@ -1530,40 +1530,40 @@
         <v>2019</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06245181421431312</v>
+        <v>0.05921211745648991</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04172885125839199</v>
+        <v>0.04154085971343591</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01236533381913141</v>
+        <v>0.01506344046076702</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04340838248105405</v>
+        <v>0.04543643008438214</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.02283629083264616</v>
+        <v>-0.03051452492922657</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05332806198893514</v>
+        <v>0.06061572378260771</v>
       </c>
       <c r="H27" t="n">
-        <v>0.008753753027447964</v>
+        <v>0.01295243068102248</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01751822479487908</v>
+        <v>0.01587161994731301</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0276283086048843</v>
+        <v>0.03764060843799211</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02471105629464043</v>
+        <v>0.01518988302922475</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01832128493086116</v>
+        <v>0.02466906198732599</v>
       </c>
       <c r="M27" t="n">
-        <v>0.03157531208667042</v>
+        <v>0.02477091882014193</v>
       </c>
     </row>
     <row r="28">
@@ -1571,40 +1571,40 @@
         <v>2020</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02115042328219108</v>
+        <v>0.02063925564874669</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.08632399365109245</v>
+        <v>-0.08587951626635626</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1364295148547316</v>
+        <v>-0.08877452266079033</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1206459665754112</v>
+        <v>0.08084515681776416</v>
       </c>
       <c r="F28" t="n">
-        <v>0.06605655981668401</v>
+        <v>0.04910281313412179</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02417062164227624</v>
+        <v>-0.02151267366517895</v>
       </c>
       <c r="H28" t="n">
-        <v>0.062277053365835</v>
+        <v>0.06790589197676433</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04271269897764118</v>
+        <v>0.04132972660008338</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.03771713697054979</v>
+        <v>-0.01857249696344632</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0208098126434475</v>
+        <v>-0.01794037439148621</v>
       </c>
       <c r="L28" t="n">
-        <v>0.08805930477396973</v>
+        <v>0.1057865954359984</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04389794652665291</v>
+        <v>0.04692903895256295</v>
       </c>
     </row>
     <row r="29">
@@ -1612,40 +1612,40 @@
         <v>2021</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04248447402190747</v>
+        <v>0.03196244723365393</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01468480449272791</v>
+        <v>-0.01598309438710266</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.002664801184080301</v>
+        <v>0.01817346095931316</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02267366839981566</v>
+        <v>0.0278233856030301</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00259390771177781</v>
+        <v>0.01258082246860504</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02256874445546764</v>
+        <v>0.02149763241654301</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02353347119633287</v>
+        <v>0.02488876851889721</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04260094525572411</v>
+        <v>0.04580322591875441</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.06008180302697808</v>
+        <v>-0.05779494883743252</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0760537260588896</v>
+        <v>0.0797849561730164</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.03307237137574315</v>
+        <v>-0.03485155767068715</v>
       </c>
       <c r="M29" t="n">
-        <v>0.06702326338855458</v>
+        <v>0.05832037195473649</v>
       </c>
     </row>
     <row r="30">
@@ -1653,40 +1653,40 @@
         <v>2022</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.06430831935064996</v>
+        <v>-0.06800800260592921</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.02204524414197417</v>
+        <v>-0.0100135798189811</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07035029335494669</v>
+        <v>0.06662125787175999</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.03132222175624078</v>
+        <v>-0.0178975402399405</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.02056587046429281</v>
+        <v>-0.02665921783306691</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.04682568730012182</v>
+        <v>-0.05562171910279468</v>
       </c>
       <c r="H30" t="n">
-        <v>0.06373199697529874</v>
+        <v>0.08533430800445307</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.00545112281166471</v>
+        <v>-0.006431114511601499</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.05886000610116515</v>
+        <v>-0.04887670545258027</v>
       </c>
       <c r="K30" t="n">
-        <v>0.07381366675100121</v>
+        <v>0.1030928535963369</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05999286916338686</v>
+        <v>0.05540268069522614</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.04667829599559181</v>
+        <v>-0.04387924575312607</v>
       </c>
     </row>
     <row r="31">
@@ -1694,40 +1694,40 @@
         <v>2023</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.002807580594271442</v>
+        <v>0.001216957403416874</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.04372195009583901</v>
+        <v>-0.04137686848230437</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05483653453251258</v>
+        <v>0.04673114584418658</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03579506250869047</v>
+        <v>0.04920126835706418</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.02873315787629305</v>
+        <v>-0.02700512579370795</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05936272600388137</v>
+        <v>0.06786103970934709</v>
       </c>
       <c r="H31" t="n">
-        <v>0.005116615565134985</v>
+        <v>0.006589349553373314</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03506676801634701</v>
+        <v>0.03081265364193553</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.03144956991588677</v>
+        <v>-0.03159048932671404</v>
       </c>
       <c r="K31" t="n">
-        <v>0.01424126197781073</v>
+        <v>0.0001877964414180866</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00901343451933001</v>
+        <v>0.01299747600750645</v>
       </c>
       <c r="M31" t="n">
-        <v>0.02175084654651394</v>
+        <v>0.01878869222843749</v>
       </c>
     </row>
   </sheetData>

--- a/data/min_var_monthly_returns.xlsx
+++ b/data/min_var_monthly_returns.xlsx
@@ -505,40 +505,40 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0149508748075321</v>
+        <v>-0.01495109952912288</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.03628029688233059</v>
+        <v>-0.03628007467926764</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.04239598028305547</v>
+        <v>-0.04239640297330871</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03116016403365429</v>
+        <v>0.03116082542460319</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03538191898732457</v>
+        <v>-0.03538232968440846</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.05265699975571048</v>
+        <v>-0.05265711988607591</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03792439518260604</v>
+        <v>0.03792452528660362</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0234236326452022</v>
+        <v>0.02342352562471195</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.007695788326142594</v>
+        <v>-0.007695997385410269</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04982822241327534</v>
+        <v>0.04982878178455996</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01729097288257431</v>
+        <v>0.01729077538512791</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02517033689372683</v>
+        <v>0.02517026842553727</v>
       </c>
     </row>
     <row r="3">
@@ -546,40 +546,40 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03135116531428772</v>
+        <v>0.03135122138825919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01998621214917407</v>
+        <v>0.01998618289496346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02488781187352673</v>
+        <v>0.02488776785022506</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03094173008422363</v>
+        <v>0.03094159615712067</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04855581204260817</v>
+        <v>0.04855630990347226</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.004212003154407951</v>
+        <v>-0.004211978905047209</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0129282793381067</v>
+        <v>0.01292791711665409</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.002348484390692684</v>
+        <v>-0.002348460905337135</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04809454583110129</v>
+        <v>0.04809434880445229</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03827728483392323</v>
+        <v>0.03827760303688832</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04097087941484667</v>
+        <v>0.04097096691523072</v>
       </c>
       <c r="M3" t="n">
-        <v>0.05473966955833953</v>
+        <v>0.05473967648545397</v>
       </c>
     </row>
     <row r="4">
@@ -587,40 +587,40 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01261908960982305</v>
+        <v>0.01261917433518089</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.003920769167452764</v>
+        <v>-0.003921181537993368</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02640165196901334</v>
+        <v>0.02640233697791783</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00924820471559773</v>
+        <v>-0.009248364842524892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01631924459621548</v>
+        <v>0.01631924152192554</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03439170132876535</v>
+        <v>0.03439142787076221</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.04610655824964827</v>
+        <v>-0.04610676282392212</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00736661617078771</v>
+        <v>0.007367097559741742</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03333421080136878</v>
+        <v>0.03333409932071141</v>
       </c>
       <c r="K4" t="n">
-        <v>0.06038566396822032</v>
+        <v>0.06038533849395566</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06102520747646567</v>
+        <v>0.06102538521271095</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.01213256990701528</v>
+        <v>-0.01213258195928935</v>
       </c>
     </row>
     <row r="5">
@@ -628,40 +628,40 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0196671806840758</v>
+        <v>0.01966721333738075</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01455108510163927</v>
+        <v>0.01455088414627337</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0007884005006718597</v>
+        <v>-0.0007884387938784654</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05348711188877631</v>
+        <v>0.05348726010165161</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04716538453167241</v>
+        <v>0.04716541695343812</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0299849477509786</v>
+        <v>0.02998497449506665</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06153557123305342</v>
+        <v>0.06153568138264642</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.04590135073455071</v>
+        <v>-0.04590146643852588</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0770605890072189</v>
+        <v>0.07706042044629724</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02520916137806073</v>
+        <v>-0.02520890770862094</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06530105440431155</v>
+        <v>0.06530070547253675</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01577505474386709</v>
+        <v>0.01577543926058111</v>
       </c>
     </row>
     <row r="6">
@@ -669,40 +669,40 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>0.00596051348932547</v>
+        <v>0.005960154555639363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06083867670458121</v>
+        <v>0.0608387413556164</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0742947028933858</v>
+        <v>0.0742951881868017</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02536161276066573</v>
+        <v>0.02536141135328296</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02762800213355143</v>
+        <v>-0.02762811916932462</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01420389616980366</v>
+        <v>0.01420400641720332</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.01958522237705806</v>
+        <v>-0.01958526827999207</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03767287692688015</v>
+        <v>-0.03767269342124613</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04184809190198924</v>
+        <v>0.04184762556746247</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001144417953769183</v>
+        <v>0.001144697457240218</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04202728800921318</v>
+        <v>0.04202726159875692</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01393009201494255</v>
+        <v>0.01393037572466094</v>
       </c>
     </row>
     <row r="7">
@@ -710,40 +710,40 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.04954721919429939</v>
+        <v>-0.0495474204414158</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03564704678893582</v>
+        <v>-0.0356470335296446</v>
       </c>
       <c r="D7" t="n">
-        <v>0.03472137231005701</v>
+        <v>0.03472142550823487</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09176281441521783</v>
+        <v>0.09176292670266317</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.00841228978512254</v>
+        <v>-0.008412408894616474</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02086506412993905</v>
+        <v>-0.02086515510657583</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.01588051862132167</v>
+        <v>-0.01588034632515078</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002097481474643281</v>
+        <v>0.000209782932037772</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0536607741312658</v>
+        <v>-0.05366104036964037</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02515039125244822</v>
+        <v>0.02515068625367123</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.03585604279011956</v>
+        <v>-0.03585631928959532</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01813204694963355</v>
+        <v>0.01813182778647948</v>
       </c>
     </row>
     <row r="8">
@@ -751,40 +751,40 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.02284929198453978</v>
+        <v>-0.02284881848663289</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0587825432813408</v>
+        <v>-0.05878263721370702</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1542529545260258</v>
+        <v>0.154252908544489</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003139282366214413</v>
+        <v>0.003139250225055568</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03795046553803338</v>
+        <v>0.03795007569667397</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01243915222321879</v>
+        <v>-0.0124389791397469</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.004105673595718007</v>
+        <v>-0.004105655975208844</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06076263805938442</v>
+        <v>0.06076266731773905</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08075053036607338</v>
+        <v>0.08075101407243856</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001649721095964285</v>
+        <v>0.0001645916284593874</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.02782538384061595</v>
+        <v>-0.02782563856069853</v>
       </c>
       <c r="M8" t="n">
-        <v>0.05766282726101979</v>
+        <v>0.05766299210860693</v>
       </c>
     </row>
     <row r="9">
@@ -792,40 +792,40 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.0677610127403665</v>
+        <v>-0.06776116614570604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03862676568209911</v>
+        <v>0.03862703605539974</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.03370819322390162</v>
+        <v>-0.03370826845288311</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03138276956059993</v>
+        <v>0.03138285758883352</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.005940891709040996</v>
+        <v>-0.005940833554622493</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001923383222315111</v>
+        <v>-0.001923438647081444</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04986809196456155</v>
+        <v>-0.04986786091956352</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.01452337285361827</v>
+        <v>-0.01452345689774148</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0531866920071985</v>
+        <v>-0.05318691823293054</v>
       </c>
       <c r="K9" t="n">
-        <v>0.008949984653981335</v>
+        <v>0.008949798703881573</v>
       </c>
       <c r="L9" t="n">
-        <v>0.05509688114948119</v>
+        <v>0.05509671775167768</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01815171819384442</v>
+        <v>0.01815235151526906</v>
       </c>
     </row>
     <row r="10">
@@ -833,40 +833,40 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.01167833301079035</v>
+        <v>-0.01167869962569157</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0187286419143069</v>
+        <v>0.01872868527082883</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07210285650579729</v>
+        <v>0.0721030223559862</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.004420541010288659</v>
+        <v>-0.004420415672085509</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003625371824478307</v>
+        <v>0.003625293233008531</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05003658402496258</v>
+        <v>-0.05003656015557678</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.05716786133067908</v>
+        <v>-0.0571681059979009</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01737608191933426</v>
+        <v>-0.01737577729183248</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0818766266355242</v>
+        <v>-0.0818765236444261</v>
       </c>
       <c r="K10" t="n">
-        <v>0.08079492842426061</v>
+        <v>0.08079456889348569</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06616980251873383</v>
+        <v>0.0661702937306099</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.02078850122742093</v>
+        <v>-0.02078890935151456</v>
       </c>
     </row>
     <row r="11">
@@ -874,40 +874,40 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.02681383640396617</v>
+        <v>-0.02681360226765761</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.01260120979834367</v>
+        <v>-0.01260127884953566</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02358845234921181</v>
+        <v>0.02358820433886177</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04469135049986184</v>
+        <v>0.04469154960483257</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04386311169501589</v>
+        <v>0.04386290105594992</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02816996533537197</v>
+        <v>0.02817019515079311</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.008360941141834721</v>
+        <v>-0.008361100686665068</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02942877701747371</v>
+        <v>0.02942866329259997</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.02269608620320962</v>
+        <v>-0.02269568547148026</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04854187282166955</v>
+        <v>0.04854155007380134</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.00646645890271369</v>
+        <v>-0.006466357078190876</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05662071508998245</v>
+        <v>0.05662054687160478</v>
       </c>
     </row>
     <row r="12">
@@ -915,40 +915,40 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.004444633319724667</v>
+        <v>-0.004444389251878955</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04511681330430317</v>
+        <v>0.04511655236175915</v>
       </c>
       <c r="D12" t="n">
-        <v>0.005286207601924442</v>
+        <v>0.005286248758956891</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.01336516784929853</v>
+        <v>-0.01336507084777117</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01401207259027748</v>
+        <v>0.01401203582733701</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01770510877808307</v>
+        <v>0.01770512419482362</v>
       </c>
       <c r="H12" t="n">
-        <v>0.009833145591749748</v>
+        <v>0.009833225377350319</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01833973344274042</v>
+        <v>0.018339618759037</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01527361659941628</v>
+        <v>0.01527350990155485</v>
       </c>
       <c r="K12" t="n">
-        <v>0.009065316766794895</v>
+        <v>0.009065406073219595</v>
       </c>
       <c r="L12" t="n">
-        <v>0.03585063986725867</v>
+        <v>0.03585100207158587</v>
       </c>
       <c r="M12" t="n">
-        <v>0.03190659816050023</v>
+        <v>0.03190643465376786</v>
       </c>
     </row>
     <row r="13">
@@ -956,40 +956,40 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>0.005092364233472813</v>
+        <v>0.005092244405907831</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08109397578270494</v>
+        <v>0.08109420258792954</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01827773463028592</v>
+        <v>-0.01827746303744437</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002756228931857674</v>
+        <v>0.002755718531057827</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.002260123569310046</v>
+        <v>-0.002259951471203614</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0226061035352072</v>
+        <v>0.02260604636706809</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02683792613569302</v>
+        <v>0.02683761856302191</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0084474449899552</v>
+        <v>-0.008447132187672901</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0394278475438703</v>
+        <v>0.03942789398398761</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.05958994917046589</v>
+        <v>-0.0595900275285961</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01962340590056355</v>
+        <v>0.01962333147770789</v>
       </c>
       <c r="M13" t="n">
-        <v>0.007675384316376377</v>
+        <v>0.007675534061189149</v>
       </c>
     </row>
     <row r="14">
@@ -997,40 +997,40 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>0.03628095828828082</v>
+        <v>0.03628090011443841</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.02516895862417934</v>
+        <v>-0.02516899821214758</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007265242131212712</v>
+        <v>0.007265397812176833</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.01518550159054932</v>
+        <v>-0.01518565009342632</v>
       </c>
       <c r="F14" t="n">
-        <v>0.005095525018783631</v>
+        <v>0.005095508018612804</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02748998128367863</v>
+        <v>0.02749001194118628</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02290465578431622</v>
+        <v>0.02290449870774647</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02055846911627812</v>
+        <v>0.02055889509833619</v>
       </c>
       <c r="J14" t="n">
-        <v>0.03582900427921643</v>
+        <v>0.03582872033434015</v>
       </c>
       <c r="K14" t="n">
-        <v>0.06386570243071632</v>
+        <v>0.06386590196969144</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0168693875487882</v>
+        <v>0.01686920585358642</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008924800344113137</v>
+        <v>0.008924503872799416</v>
       </c>
     </row>
     <row r="15">
@@ -1038,40 +1038,40 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03375585642441248</v>
+        <v>0.03375637502007045</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01498218024505604</v>
+        <v>0.01498203758942784</v>
       </c>
       <c r="D15" t="n">
-        <v>0.01524092935201526</v>
+        <v>0.01524073714844465</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04471132607932771</v>
+        <v>0.04471156626495043</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01069474113587798</v>
+        <v>0.01069482626523666</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.04468975389887941</v>
+        <v>-0.04468981027669883</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.003531964508814323</v>
+        <v>-0.00353200694041822</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01043835069575105</v>
+        <v>0.01043831386600091</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02676136021037445</v>
+        <v>0.02676142416903859</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03748456197900141</v>
+        <v>0.03748455046005983</v>
       </c>
       <c r="L15" t="n">
-        <v>0.00381183875206359</v>
+        <v>0.003811646533137925</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.009764521370824841</v>
+        <v>-0.009764546466786705</v>
       </c>
     </row>
     <row r="16">
@@ -1079,40 +1079,40 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.02755005773065533</v>
+        <v>-0.02755004577365439</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.02927801499724825</v>
+        <v>-0.02927789797225411</v>
       </c>
       <c r="D16" t="n">
-        <v>0.04560955610492434</v>
+        <v>0.04560942945074942</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02314643439324571</v>
+        <v>0.02314644698450041</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0033928626340336</v>
+        <v>-0.003392960285392266</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.04543543150645413</v>
+        <v>-0.0454353714653708</v>
       </c>
       <c r="H16" t="n">
-        <v>0.007646693415908512</v>
+        <v>0.007646772546362035</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.006591433783971867</v>
+        <v>-0.006591525992367675</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.06641792322063889</v>
+        <v>-0.06641780608197279</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.1114658553794318</v>
+        <v>-0.1114660671488278</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.01350032820528757</v>
+        <v>-0.01350011952084762</v>
       </c>
       <c r="M16" t="n">
-        <v>0.03887276285138741</v>
+        <v>0.0388729862350663</v>
       </c>
     </row>
     <row r="17">
@@ -1120,40 +1120,40 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.1205101964987484</v>
+        <v>-0.1205103937927843</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.05822530981098784</v>
+        <v>-0.05822541609639453</v>
       </c>
       <c r="D17" t="n">
-        <v>0.101311206458474</v>
+        <v>0.1013113283028348</v>
       </c>
       <c r="E17" t="n">
-        <v>0.009528882626762103</v>
+        <v>0.009528795572435689</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0179848142277963</v>
+        <v>0.01798488418323685</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.00875368965373613</v>
+        <v>-0.008753716382450039</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02745620835089579</v>
+        <v>0.02745599338112736</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01209720585756147</v>
+        <v>0.012097443123952</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.0180877259578105</v>
+        <v>-0.01808772586291385</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.01152270657512444</v>
+        <v>-0.01152255706296401</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08886197718236644</v>
+        <v>0.08886212194860765</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.008837219524221784</v>
+        <v>-0.008837563155473571</v>
       </c>
     </row>
     <row r="18">
@@ -1161,40 +1161,40 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.01818507526096924</v>
+        <v>-0.0181853274828131</v>
       </c>
       <c r="C18" t="n">
-        <v>2.629850017066282e-05</v>
+        <v>2.658827771528927e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04615442789049395</v>
+        <v>0.04615425110780569</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001503670105735377</v>
+        <v>0.001503935584731941</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0462423919929239</v>
+        <v>-0.04624234953999706</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02910978975011957</v>
+        <v>-0.0291100201814013</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05998970986854912</v>
+        <v>0.05998988782250736</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.01246974406308976</v>
+        <v>-0.01246980552732591</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06696625855164395</v>
+        <v>0.06696617379958614</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0005410988202079192</v>
+        <v>0.0005408193864082644</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.01604431864881051</v>
+        <v>-0.01604409551384989</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02425609260921169</v>
+        <v>0.02425614129136955</v>
       </c>
     </row>
     <row r="19">
@@ -1202,40 +1202,40 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02638378726289536</v>
+        <v>0.02638373998542143</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0303444434708865</v>
+        <v>-0.03034441879242711</v>
       </c>
       <c r="D19" t="n">
-        <v>0.009704335563911703</v>
+        <v>0.00970450548262658</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04343294022319522</v>
+        <v>0.04343296377513894</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0257259600229367</v>
+        <v>0.02572568654757679</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02947376560654025</v>
+        <v>-0.02947367672155199</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.004039528574580675</v>
+        <v>-0.004039508024047955</v>
       </c>
       <c r="I19" t="n">
-        <v>0.010721602410241</v>
+        <v>0.01072145040780725</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.02413601172727631</v>
+        <v>-0.02413593476124376</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06760713811511265</v>
+        <v>0.06760726819846719</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02748447144848565</v>
+        <v>0.02748448522493252</v>
       </c>
       <c r="M19" t="n">
-        <v>0.04879307833523283</v>
+        <v>0.04879299460352504</v>
       </c>
     </row>
     <row r="20">
@@ -1243,40 +1243,40 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01683503893891825</v>
+        <v>0.01683518821982366</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.005751363519718389</v>
+        <v>-0.005751616509508062</v>
       </c>
       <c r="D20" t="n">
-        <v>0.04166340530535573</v>
+        <v>0.04166341426690834</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.002584248546900425</v>
+        <v>-0.002583968202373277</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07684635617467195</v>
+        <v>0.07684623861883466</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05082721765441045</v>
+        <v>0.05082743726544003</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04950984933798663</v>
+        <v>0.0495095781359558</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0006496206795855164</v>
+        <v>-0.0006496899215415741</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02891139938639897</v>
+        <v>0.02891126461684257</v>
       </c>
       <c r="K20" t="n">
-        <v>0.004488709082007158</v>
+        <v>0.004488890545486734</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.01567647704782837</v>
+        <v>-0.01567628822086953</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.02831528401802685</v>
+        <v>-0.02831560267145128</v>
       </c>
     </row>
     <row r="21">
@@ -1284,40 +1284,40 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03232456205895606</v>
+        <v>0.03232490117984077</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01097867896464555</v>
+        <v>0.01097832436672364</v>
       </c>
       <c r="D21" t="n">
-        <v>0.05783312681472474</v>
+        <v>0.05783315868144401</v>
       </c>
       <c r="E21" t="n">
-        <v>0.03264969391594663</v>
+        <v>0.03264988226209753</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.02816346404884018</v>
+        <v>-0.02816353510726266</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.01575898759237537</v>
+        <v>-0.01575887315301339</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05364271520155661</v>
+        <v>0.05364254813272118</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.04052816537214177</v>
+        <v>-0.04052810238168147</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01042615593250873</v>
+        <v>0.0104264130716083</v>
       </c>
       <c r="K21" t="n">
-        <v>0.038288306371971</v>
+        <v>0.03828820918671427</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0356972149468846</v>
+        <v>0.03569709121702358</v>
       </c>
       <c r="M21" t="n">
-        <v>0.001477419328234753</v>
+        <v>0.00147756393214582</v>
       </c>
     </row>
     <row r="22">
@@ -1325,40 +1325,40 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.004752597666036862</v>
+        <v>-0.004752644386130767</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02944319449156385</v>
+        <v>0.0294431921567393</v>
       </c>
       <c r="D22" t="n">
-        <v>0.02251120671557705</v>
+        <v>0.02251097177429817</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03805818918832493</v>
+        <v>0.03805846739054597</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008278560753303688</v>
+        <v>-0.008278661601833215</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01154645868335047</v>
+        <v>0.01154647446522294</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.03029334379257376</v>
+        <v>-0.03029329855022778</v>
       </c>
       <c r="I22" t="n">
-        <v>0.04485851392883</v>
+        <v>0.04485819701099092</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.005229610458689637</v>
+        <v>-0.005229475534802019</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02747817133930486</v>
+        <v>0.02747833754019346</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0881133545157613</v>
+        <v>0.08811334134047533</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002990293920282161</v>
+        <v>0.002990265271294756</v>
       </c>
     </row>
     <row r="23">
@@ -1366,40 +1366,40 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01196716591470248</v>
+        <v>0.01196709656551209</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.008997069556447079</v>
+        <v>-0.008997135785506205</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.002430269949956654</v>
+        <v>-0.002430168951531253</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.02829341461318602</v>
+        <v>-0.02829351033046135</v>
       </c>
       <c r="F23" t="n">
-        <v>0.01125422554242861</v>
+        <v>0.01125425561118409</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02558659645796058</v>
+        <v>-0.02558644729823811</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01953042013477302</v>
+        <v>0.0195302901275598</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.06613472939564524</v>
+        <v>-0.06613455045246774</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.01179225555275198</v>
+        <v>-0.01179220051430141</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.001447569330823684</v>
+        <v>-0.001447809980189452</v>
       </c>
       <c r="L23" t="n">
-        <v>0.006768694356142246</v>
+        <v>0.006768503842910389</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01584168049810164</v>
+        <v>0.01584194534077277</v>
       </c>
     </row>
     <row r="24">
@@ -1407,40 +1407,40 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0377009452617747</v>
+        <v>0.03770101385741698</v>
       </c>
       <c r="C24" t="n">
-        <v>0.004354172263570488</v>
+        <v>0.004354085087328707</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0463189264770818</v>
+        <v>0.04631885571752514</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.00993594368665518</v>
+        <v>-0.009935883600122319</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03933810851599295</v>
+        <v>0.03933817523924055</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04594541431784704</v>
+        <v>0.04594539152520039</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004907739996356408</v>
+        <v>0.004907688919361997</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.03033324333034704</v>
+        <v>-0.03033322405491301</v>
       </c>
       <c r="J24" t="n">
-        <v>0.01081611523129822</v>
+        <v>0.01081603534131625</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.01770653874421435</v>
+        <v>-0.0177065769438649</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.01621391108556969</v>
+        <v>-0.01621383511804408</v>
       </c>
       <c r="M24" t="n">
-        <v>0.03281373304664559</v>
+        <v>0.03281361803190097</v>
       </c>
     </row>
     <row r="25">
@@ -1448,40 +1448,40 @@
         <v>2017</v>
       </c>
       <c r="B25" t="n">
-        <v>0.00579859553073514</v>
+        <v>0.005798659529630434</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04931912240134051</v>
+        <v>0.04931920403519463</v>
       </c>
       <c r="D25" t="n">
-        <v>0.008847656881740384</v>
+        <v>0.008847692166133125</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02449722148874733</v>
+        <v>0.02449717656101846</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02185903666034039</v>
+        <v>0.02185912535223822</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.01117261429493532</v>
+        <v>-0.01117277832929831</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01961141721282211</v>
+        <v>0.01961152988242243</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.001764174429215948</v>
+        <v>-0.001764097813029442</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01036942199209867</v>
+        <v>0.0103693776225382</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03691640094972337</v>
+        <v>0.03691614326996207</v>
       </c>
       <c r="L25" t="n">
-        <v>0.04269533954760951</v>
+        <v>0.04269550656550036</v>
       </c>
       <c r="M25" t="n">
-        <v>0.005539295971580982</v>
+        <v>0.005539222119777421</v>
       </c>
     </row>
     <row r="26">
@@ -1489,40 +1489,40 @@
         <v>2018</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02208533529981316</v>
+        <v>0.02208555147240121</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.07548042121297383</v>
+        <v>-0.07548051843062598</v>
       </c>
       <c r="D26" t="n">
-        <v>0.004810743439375376</v>
+        <v>0.004810747112044211</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01251864105207501</v>
+        <v>0.01251867655219674</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0170251607857288</v>
+        <v>0.01702516249817543</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02029679154036934</v>
+        <v>0.0202967804681673</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03052530123135844</v>
+        <v>0.03052521409393694</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03684239854371496</v>
+        <v>0.03684238858264854</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.001519089293297915</v>
+        <v>-0.001518929412753112</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.02204363630115169</v>
+        <v>-0.02204364861894736</v>
       </c>
       <c r="L26" t="n">
-        <v>0.004370198473862441</v>
+        <v>0.004370221461759138</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0602749221480261</v>
+        <v>-0.06027508934737213</v>
       </c>
     </row>
     <row r="27">
@@ -1530,40 +1530,40 @@
         <v>2019</v>
       </c>
       <c r="B27" t="n">
-        <v>0.05921211745648991</v>
+        <v>0.0592122750987274</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04154085971343591</v>
+        <v>0.04154084934193247</v>
       </c>
       <c r="D27" t="n">
-        <v>0.01506344046076702</v>
+        <v>0.01506340063767375</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04543643008438214</v>
+        <v>0.04543635665888379</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.03051452492922657</v>
+        <v>-0.03051446163993221</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06061572378260771</v>
+        <v>0.06061572648588909</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01295243068102248</v>
+        <v>0.01295231739451985</v>
       </c>
       <c r="I27" t="n">
-        <v>0.01587161994731301</v>
+        <v>0.01587162401368891</v>
       </c>
       <c r="J27" t="n">
-        <v>0.03764060843799211</v>
+        <v>0.03764071936726521</v>
       </c>
       <c r="K27" t="n">
-        <v>0.01518988302922475</v>
+        <v>0.01518982268019653</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02466906198732599</v>
+        <v>0.02466899390595811</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02477091882014193</v>
+        <v>0.02477100090939377</v>
       </c>
     </row>
     <row r="28">
@@ -1571,40 +1571,40 @@
         <v>2020</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02063925564874669</v>
+        <v>0.02063937381616765</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.08587951626635626</v>
+        <v>-0.08587953251352676</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.08877452266079033</v>
+        <v>-0.08877460327215225</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08084515681776416</v>
+        <v>0.08084511993161425</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04910281313412179</v>
+        <v>0.04910280417903912</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.02151267366517895</v>
+        <v>-0.0215126619156788</v>
       </c>
       <c r="H28" t="n">
-        <v>0.06790589197676433</v>
+        <v>0.06790592368526305</v>
       </c>
       <c r="I28" t="n">
-        <v>0.04132972660008338</v>
+        <v>0.04132980226513094</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.01857249696344632</v>
+        <v>-0.01857251037442109</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.01794037439148621</v>
+        <v>-0.0179404674847834</v>
       </c>
       <c r="L28" t="n">
-        <v>0.1057865954359984</v>
+        <v>0.1057866032054746</v>
       </c>
       <c r="M28" t="n">
-        <v>0.04692903895256295</v>
+        <v>0.04692910395560457</v>
       </c>
     </row>
     <row r="29">
@@ -1612,40 +1612,40 @@
         <v>2021</v>
       </c>
       <c r="B29" t="n">
-        <v>0.03196244723365393</v>
+        <v>0.03196238069761725</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.01598309438710266</v>
+        <v>-0.01598304382878435</v>
       </c>
       <c r="D29" t="n">
-        <v>0.01817346095931316</v>
+        <v>0.0181734486292775</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0278233856030301</v>
+        <v>0.02782331444374031</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01258082246860504</v>
+        <v>0.01258090856678384</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02149763241654301</v>
+        <v>0.02149753884985062</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02488876851889721</v>
+        <v>0.02488892193289605</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04580322591875441</v>
+        <v>0.0458030989331859</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.05779494883743252</v>
+        <v>-0.057794902124084</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0797849561730164</v>
+        <v>0.07978490746704403</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.03485155767068715</v>
+        <v>-0.03485157154568663</v>
       </c>
       <c r="M29" t="n">
-        <v>0.05832037195473649</v>
+        <v>0.05832046418389636</v>
       </c>
     </row>
     <row r="30">
@@ -1653,40 +1653,40 @@
         <v>2022</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.06800800260592921</v>
+        <v>-0.06800799676914349</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0100135798189811</v>
+        <v>-0.0100136090948546</v>
       </c>
       <c r="D30" t="n">
-        <v>0.06662125787175999</v>
+        <v>0.06662118817559093</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.0178975402399405</v>
+        <v>-0.01789761171531801</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.02665921783306691</v>
+        <v>-0.0266591482345343</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.05562171910279468</v>
+        <v>-0.05562167993405509</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08533430800445307</v>
+        <v>0.08533426738068317</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.006431114511601499</v>
+        <v>-0.006431098643374211</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.04887670545258027</v>
+        <v>-0.04887671428840989</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1030928535963369</v>
+        <v>0.1030928752747713</v>
       </c>
       <c r="L30" t="n">
-        <v>0.05540268069522614</v>
+        <v>0.0554027004914952</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.04387924575312607</v>
+        <v>-0.04387918209875674</v>
       </c>
     </row>
     <row r="31">
@@ -1694,40 +1694,40 @@
         <v>2023</v>
       </c>
       <c r="B31" t="n">
-        <v>0.001216957403416874</v>
+        <v>0.001216912216983834</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.04137686848230437</v>
+        <v>-0.04137695000289598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04673114584418658</v>
+        <v>0.04673122984896416</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04920126835706418</v>
+        <v>0.04920129263266948</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.02700512579370795</v>
+        <v>-0.02700516371130923</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06786103970934709</v>
+        <v>0.06786102517922021</v>
       </c>
       <c r="H31" t="n">
-        <v>0.006589349553373314</v>
+        <v>0.006589353899250083</v>
       </c>
       <c r="I31" t="n">
-        <v>0.03081265364193553</v>
+        <v>0.03081262506751825</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.03159048932671404</v>
+        <v>-0.03159049184662233</v>
       </c>
       <c r="K31" t="n">
-        <v>0.0001877964414180866</v>
+        <v>0.0001877858708685398</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01299747600750645</v>
+        <v>0.01299750101882791</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01878869222843749</v>
+        <v>0.01878871435529827</v>
       </c>
     </row>
   </sheetData>
